--- a/项目文档/负极六号服务器信息.xlsx
+++ b/项目文档/负极六号服务器信息.xlsx
@@ -144,10 +144,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,7 +466,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -478,16 +478,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
